--- a/2ANO/QUALITY-ASSURANCE/2aula-02-20/CP1.xlsx
+++ b/2ANO/QUALITY-ASSURANCE/2aula-02-20/CP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\FIAP\2ANO\QUALITY-ASSURANCE\2aula-02-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78EA0F71-D642-4426-A61D-C2CEC95EFD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B26181-0560-4FA4-A7AA-B2625E570518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D1B97F7D-56FA-4FE8-80FD-650CBE6A2EBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D1B97F7D-56FA-4FE8-80FD-650CBE6A2EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Portabilidade</t>
   </si>
   <si>
-    <t>Acurácia:</t>
-  </si>
-  <si>
     <t>Recuperabilidade</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Coexistencia</t>
+  </si>
+  <si>
+    <t>Acurácia</t>
   </si>
 </sst>
 </file>
@@ -231,26 +231,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -262,6 +244,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +588,7 @@
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,114 +601,126 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="14">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="14">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="15">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="D10" s="16">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/2ANO/QUALITY-ASSURANCE/2aula-02-20/CP1.xlsx
+++ b/2ANO/QUALITY-ASSURANCE/2aula-02-20/CP1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\FIAP\2ANO\QUALITY-ASSURANCE\2aula-02-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Breno\gitClones\FIAP\FIAP\2ANO\QUALITY-ASSURANCE\2aula-02-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B26181-0560-4FA4-A7AA-B2625E570518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8247A878-8FBF-4201-9804-B6CCC421307D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{D1B97F7D-56FA-4FE8-80FD-650CBE6A2EBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1B97F7D-56FA-4FE8-80FD-650CBE6A2EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Atributo da Norma</t>
   </si>
@@ -75,29 +75,32 @@
     <t>Portabilidade</t>
   </si>
   <si>
-    <t>Recuperabilidade</t>
-  </si>
-  <si>
-    <t>Inteligibilidade</t>
-  </si>
-  <si>
-    <t>Relação do tempo</t>
-  </si>
-  <si>
-    <t>Estabilidade</t>
-  </si>
-  <si>
-    <t>Coexistencia</t>
-  </si>
-  <si>
-    <t>Acurácia</t>
+    <t>Acurácia: exatidão e confiabilidade dos resultados</t>
+  </si>
+  <si>
+    <t>Recuperabilidade: capacidade de recuperação e manutenção da integridade dos dados após falhas</t>
+  </si>
+  <si>
+    <t>Inteligibilidade: o quão fácil é utilizar o software</t>
+  </si>
+  <si>
+    <t>Relação do tempo: a capacidade de produção pelo tempo gasto</t>
+  </si>
+  <si>
+    <t>Estabilidade:  o quão raro é a ocorrência de falhas no sistema</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Coexistencia: operação simultânea com outras aplicações</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +120,13 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -139,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -227,23 +237,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,24 +305,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -289,9 +356,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,7 +396,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -435,7 +502,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -577,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,145 +652,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA016662-0D3E-4CC4-B4C0-2674BDA03270}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19">
+        <f>((E5*D5)+(E6*D6)+(E7*D7)+(E8*D8)+(E9*D9)+(E10*D10))/(D5+D6+D7+D8+D9+D10)</f>
         <v>4</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="15">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="16">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="F11" s="19">
+        <f>((F5*D5)+(F6*D6)+(F7*D7)+(F8*D8)+(F9*D9)+(F10*D10))/(D5+D6+D7+D8+D9+D10)</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="20">
+        <f>((G5*D5)+(G6*D6)+(G7*D7)+(G8*D8)+(G9*D9)+(G10*D10))/(D5+D6+D7+D8+D9+D10)</f>
+        <v>4.72</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
